--- a/docs/StructureDefinition-FlagConsent.xlsx
+++ b/docs/StructureDefinition-FlagConsent.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2219" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2219" uniqueCount="379">
   <si>
     <t>Property</t>
   </si>
@@ -456,6 +456,10 @@
   </si>
   <si>
     <t>Some parties may be duplicated between the target resource and its provenance.  For instance, the prescriber is usually (but not always) the author of the prescription resource. This resource is defined with close consideration for W3C Provenance.</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>ControlAct[isNormalAct() and subsumes(CACT, classCode) and moodCode=EVN]</t>
@@ -1507,17 +1511,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.26171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="39.26171875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="16.40234375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.03515625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="39.03515625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="15.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="128.62890625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="127.37109375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1526,26 +1530,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="54.01953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="80.15625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="53.3671875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="54.74609375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="80.30859375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="53.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="18.84765625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.71875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="45.6171875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="72.4296875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="45.09765625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="72.6015625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="33.05078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2565,7 +2569,7 @@
         <v>78</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>78</v>
+        <v>143</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>86</v>
@@ -2574,7 +2578,7 @@
         <v>78</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>78</v>
@@ -2582,10 +2586,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2608,13 +2612,13 @@
         <v>78</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -2653,7 +2657,7 @@
         <v>78</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AC10" s="2"/>
       <c r="AD10" t="s" s="2">
@@ -2663,7 +2667,7 @@
         <v>133</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>79</v>
@@ -2675,7 +2679,7 @@
         <v>78</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>78</v>
@@ -2692,13 +2696,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>78</v>
@@ -2720,13 +2724,13 @@
         <v>78</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2777,7 +2781,7 @@
         <v>78</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>79</v>
@@ -2786,10 +2790,10 @@
         <v>80</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>78</v>
@@ -2806,13 +2810,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>78</v>
@@ -2834,13 +2838,13 @@
         <v>78</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2891,7 +2895,7 @@
         <v>78</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
@@ -2900,10 +2904,10 @@
         <v>80</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>78</v>
@@ -2920,14 +2924,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -2946,19 +2950,19 @@
         <v>78</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>78</v>
@@ -3007,7 +3011,7 @@
         <v>78</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
@@ -3019,7 +3023,7 @@
         <v>78</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>78</v>
@@ -3036,10 +3040,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3062,16 +3066,16 @@
         <v>91</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3085,7 +3089,7 @@
         <v>78</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="U14" t="s" s="2">
         <v>78</v>
@@ -3121,7 +3125,7 @@
         <v>78</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
@@ -3136,24 +3140,24 @@
         <v>102</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3179,16 +3183,16 @@
         <v>110</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>78</v>
@@ -3213,13 +3217,13 @@
         <v>78</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>78</v>
@@ -3237,7 +3241,7 @@
         <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>90</v>
@@ -3252,24 +3256,24 @@
         <v>102</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3292,13 +3296,13 @@
         <v>91</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3325,13 +3329,13 @@
         <v>78</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>78</v>
@@ -3349,7 +3353,7 @@
         <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>90</v>
@@ -3378,10 +3382,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3404,13 +3408,13 @@
         <v>91</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3437,11 +3441,11 @@
         <v>78</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Y17" s="2"/>
       <c r="Z17" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>78</v>
@@ -3459,7 +3463,7 @@
         <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>90</v>
@@ -3474,24 +3478,24 @@
         <v>102</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3514,16 +3518,16 @@
         <v>91</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3573,7 +3577,7 @@
         <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
@@ -3588,24 +3592,24 @@
         <v>102</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3628,16 +3632,16 @@
         <v>91</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3687,7 +3691,7 @@
         <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -3702,28 +3706,28 @@
         <v>102</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -3742,16 +3746,16 @@
         <v>91</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -3801,7 +3805,7 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -3816,28 +3820,28 @@
         <v>102</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -3856,13 +3860,13 @@
         <v>91</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3913,7 +3917,7 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -3928,7 +3932,7 @@
         <v>102</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>78</v>
@@ -3937,15 +3941,15 @@
         <v>78</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3968,16 +3972,16 @@
         <v>91</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4027,7 +4031,7 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4045,7 +4049,7 @@
         <v>78</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>78</v>
@@ -4056,10 +4060,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4082,13 +4086,13 @@
         <v>78</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4139,7 +4143,7 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4168,10 +4172,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4194,13 +4198,13 @@
         <v>78</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4251,7 +4255,7 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -4272,7 +4276,7 @@
         <v>78</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>78</v>
@@ -4280,14 +4284,14 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4306,16 +4310,16 @@
         <v>78</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4365,7 +4369,7 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -4377,7 +4381,7 @@
         <v>78</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>78</v>
@@ -4386,7 +4390,7 @@
         <v>78</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>78</v>
@@ -4394,14 +4398,14 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4420,19 +4424,19 @@
         <v>91</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>78</v>
@@ -4481,7 +4485,7 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -4493,7 +4497,7 @@
         <v>78</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>78</v>
@@ -4510,10 +4514,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4539,10 +4543,10 @@
         <v>104</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4593,7 +4597,7 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -4602,7 +4606,7 @@
         <v>90</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>102</v>
@@ -4622,10 +4626,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4651,13 +4655,13 @@
         <v>104</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4707,16 +4711,16 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI28" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>102</v>
@@ -4736,10 +4740,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4762,19 +4766,19 @@
         <v>91</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>78</v>
@@ -4799,11 +4803,11 @@
         <v>78</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Y29" s="2"/>
       <c r="Z29" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>78</v>
@@ -4821,7 +4825,7 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -4830,7 +4834,7 @@
         <v>90</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>102</v>
@@ -4850,10 +4854,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4876,13 +4880,13 @@
         <v>91</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4933,7 +4937,7 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -4962,10 +4966,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4988,13 +4992,13 @@
         <v>78</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5045,7 +5049,7 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5066,7 +5070,7 @@
         <v>78</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>78</v>
@@ -5074,14 +5078,14 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5100,16 +5104,16 @@
         <v>78</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5159,7 +5163,7 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5171,7 +5175,7 @@
         <v>78</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>78</v>
@@ -5180,7 +5184,7 @@
         <v>78</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>78</v>
@@ -5188,14 +5192,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5214,19 +5218,19 @@
         <v>91</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>78</v>
@@ -5275,7 +5279,7 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5287,7 +5291,7 @@
         <v>78</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>78</v>
@@ -5304,10 +5308,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5330,13 +5334,13 @@
         <v>91</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5387,7 +5391,7 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>90</v>
@@ -5416,10 +5420,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5442,13 +5446,13 @@
         <v>78</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5499,7 +5503,7 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -5528,10 +5532,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5554,13 +5558,13 @@
         <v>78</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5611,7 +5615,7 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -5640,10 +5644,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5666,13 +5670,13 @@
         <v>91</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5723,7 +5727,7 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -5752,10 +5756,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5778,13 +5782,13 @@
         <v>78</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5835,7 +5839,7 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -5856,7 +5860,7 @@
         <v>78</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>78</v>
@@ -5864,14 +5868,14 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -5890,16 +5894,16 @@
         <v>78</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -5949,7 +5953,7 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -5961,7 +5965,7 @@
         <v>78</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>78</v>
@@ -5970,7 +5974,7 @@
         <v>78</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>78</v>
@@ -5978,14 +5982,14 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6004,19 +6008,19 @@
         <v>91</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>78</v>
@@ -6065,7 +6069,7 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6077,7 +6081,7 @@
         <v>78</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>78</v>
@@ -6094,10 +6098,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6123,10 +6127,10 @@
         <v>110</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6153,13 +6157,13 @@
         <v>78</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>78</v>
@@ -6177,7 +6181,7 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6206,10 +6210,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6232,13 +6236,13 @@
         <v>91</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6289,7 +6293,7 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -6318,10 +6322,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6344,13 +6348,13 @@
         <v>78</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6358,7 +6362,7 @@
         <v>78</v>
       </c>
       <c r="Q43" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="R43" t="s" s="2">
         <v>78</v>
@@ -6403,7 +6407,7 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -6432,10 +6436,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6458,13 +6462,13 @@
         <v>78</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6515,7 +6519,7 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -6536,7 +6540,7 @@
         <v>78</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>78</v>
@@ -6544,14 +6548,14 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -6570,16 +6574,16 @@
         <v>78</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6629,7 +6633,7 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -6641,7 +6645,7 @@
         <v>78</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>78</v>
@@ -6650,7 +6654,7 @@
         <v>78</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>78</v>
@@ -6658,14 +6662,14 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -6684,19 +6688,19 @@
         <v>91</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>78</v>
@@ -6745,7 +6749,7 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -6757,7 +6761,7 @@
         <v>78</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>78</v>
@@ -6774,10 +6778,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6800,13 +6804,13 @@
         <v>78</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6833,13 +6837,13 @@
         <v>78</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>78</v>
@@ -6857,7 +6861,7 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>90</v>
@@ -6886,10 +6890,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6912,13 +6916,13 @@
         <v>78</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6969,7 +6973,7 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>90</v>
@@ -6998,10 +7002,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7024,23 +7028,23 @@
         <v>91</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q49" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="R49" t="s" s="2">
         <v>78</v>
@@ -7061,13 +7065,13 @@
         <v>78</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>78</v>
@@ -7085,7 +7089,7 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7114,10 +7118,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7140,16 +7144,16 @@
         <v>91</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7175,13 +7179,13 @@
         <v>78</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>78</v>
@@ -7199,7 +7203,7 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -7228,10 +7232,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7254,16 +7258,16 @@
         <v>91</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7289,11 +7293,11 @@
         <v>78</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Y51" s="2"/>
       <c r="Z51" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>78</v>
@@ -7311,7 +7315,7 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -7340,10 +7344,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7366,16 +7370,16 @@
         <v>91</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7401,13 +7405,13 @@
         <v>78</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>78</v>
@@ -7425,7 +7429,7 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -7454,10 +7458,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7480,16 +7484,16 @@
         <v>91</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7515,13 +7519,13 @@
         <v>78</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>78</v>
@@ -7539,7 +7543,7 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -7568,10 +7572,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7594,16 +7598,16 @@
         <v>91</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -7653,7 +7657,7 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -7682,10 +7686,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7708,13 +7712,13 @@
         <v>91</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7722,7 +7726,7 @@
         <v>78</v>
       </c>
       <c r="Q55" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="R55" t="s" s="2">
         <v>78</v>
@@ -7767,7 +7771,7 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -7788,7 +7792,7 @@
         <v>78</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>78</v>
@@ -7796,10 +7800,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7822,13 +7826,13 @@
         <v>78</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -7879,7 +7883,7 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -7900,7 +7904,7 @@
         <v>78</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>78</v>
@@ -7908,14 +7912,14 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -7934,16 +7938,16 @@
         <v>78</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -7993,7 +7997,7 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
@@ -8005,7 +8009,7 @@
         <v>78</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>78</v>
@@ -8014,7 +8018,7 @@
         <v>78</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>78</v>
@@ -8022,14 +8026,14 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -8048,19 +8052,19 @@
         <v>91</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>78</v>
@@ -8109,7 +8113,7 @@
         <v>78</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
@@ -8121,7 +8125,7 @@
         <v>78</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>78</v>
@@ -8138,10 +8142,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8167,10 +8171,10 @@
         <v>110</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8197,13 +8201,13 @@
         <v>78</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>78</v>
@@ -8221,7 +8225,7 @@
         <v>78</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>90</v>
@@ -8250,10 +8254,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8276,13 +8280,13 @@
         <v>91</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8333,7 +8337,7 @@
         <v>78</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>90</v>
@@ -8362,10 +8366,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8391,10 +8395,10 @@
         <v>81</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8445,7 +8449,7 @@
         <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>

--- a/docs/StructureDefinition-FlagConsent.xlsx
+++ b/docs/StructureDefinition-FlagConsent.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2219" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2219" uniqueCount="378">
   <si>
     <t>Property</t>
   </si>
@@ -456,10 +456,6 @@
   </si>
   <si>
     <t>Some parties may be duplicated between the target resource and its provenance.  For instance, the prescriber is usually (but not always) the author of the prescription resource. This resource is defined with close consideration for W3C Provenance.</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>ControlAct[isNormalAct() and subsumes(CACT, classCode) and moodCode=EVN]</t>
@@ -1511,17 +1507,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.03515625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="39.03515625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="15.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.26171875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="39.26171875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="16.40234375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="127.37109375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="128.62890625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1530,26 +1526,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="54.74609375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="80.30859375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="53.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="18.84765625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="54.01953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="80.15625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="53.3671875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="45.09765625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="72.6015625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.71875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="45.6171875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="72.4296875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2569,7 +2565,7 @@
         <v>78</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>143</v>
+        <v>78</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>86</v>
@@ -2578,7 +2574,7 @@
         <v>78</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>78</v>
@@ -2586,10 +2582,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2612,13 +2608,13 @@
         <v>78</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -2657,7 +2653,7 @@
         <v>78</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AC10" s="2"/>
       <c r="AD10" t="s" s="2">
@@ -2667,7 +2663,7 @@
         <v>133</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>79</v>
@@ -2679,7 +2675,7 @@
         <v>78</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>78</v>
@@ -2696,13 +2692,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="C11" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>78</v>
@@ -2724,13 +2720,13 @@
         <v>78</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>156</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2781,7 +2777,7 @@
         <v>78</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>79</v>
@@ -2790,10 +2786,10 @@
         <v>80</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>78</v>
@@ -2810,13 +2806,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="C12" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>78</v>
@@ -2838,13 +2834,13 @@
         <v>78</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2895,7 +2891,7 @@
         <v>78</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
@@ -2904,10 +2900,10 @@
         <v>80</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>78</v>
@@ -2924,14 +2920,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -2950,19 +2946,19 @@
         <v>78</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L13" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="N13" t="s" s="2">
+      <c r="O13" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>78</v>
@@ -3011,7 +3007,7 @@
         <v>78</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
@@ -3023,7 +3019,7 @@
         <v>78</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>78</v>
@@ -3040,10 +3036,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3066,16 +3062,16 @@
         <v>91</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3089,7 +3085,7 @@
         <v>78</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="U14" t="s" s="2">
         <v>78</v>
@@ -3125,7 +3121,7 @@
         <v>78</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
@@ -3140,24 +3136,24 @@
         <v>102</v>
       </c>
       <c r="AK14" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AL14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM14" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="AL14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM14" t="s" s="2">
+      <c r="AN14" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="AN14" t="s" s="2">
-        <v>178</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3183,16 +3179,16 @@
         <v>110</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="N15" t="s" s="2">
+      <c r="O15" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>78</v>
@@ -3217,14 +3213,14 @@
         <v>78</v>
       </c>
       <c r="X15" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="Y15" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="Y15" t="s" s="2">
+      <c r="Z15" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="Z15" t="s" s="2">
-        <v>186</v>
-      </c>
       <c r="AA15" t="s" s="2">
         <v>78</v>
       </c>
@@ -3241,7 +3237,7 @@
         <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>90</v>
@@ -3256,24 +3252,24 @@
         <v>102</v>
       </c>
       <c r="AK15" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AL15" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AM15" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="AM15" t="s" s="2">
+      <c r="AN15" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>190</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3296,13 +3292,13 @@
         <v>91</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3329,14 +3325,14 @@
         <v>78</v>
       </c>
       <c r="X16" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="Y16" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="Y16" t="s" s="2">
+      <c r="Z16" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="Z16" t="s" s="2">
-        <v>197</v>
-      </c>
       <c r="AA16" t="s" s="2">
         <v>78</v>
       </c>
@@ -3353,7 +3349,7 @@
         <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>90</v>
@@ -3382,10 +3378,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3408,13 +3404,13 @@
         <v>91</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3441,11 +3437,11 @@
         <v>78</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Y17" s="2"/>
       <c r="Z17" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>78</v>
@@ -3463,7 +3459,7 @@
         <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>90</v>
@@ -3478,24 +3474,24 @@
         <v>102</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AL17" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AM17" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="AM17" t="s" s="2">
+      <c r="AN17" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>205</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3518,16 +3514,16 @@
         <v>91</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3577,7 +3573,7 @@
         <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
@@ -3592,24 +3588,24 @@
         <v>102</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM18" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="AL18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM18" t="s" s="2">
+      <c r="AN18" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>213</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3632,16 +3628,16 @@
         <v>91</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3691,7 +3687,7 @@
         <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -3706,28 +3702,28 @@
         <v>102</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AM19" t="s" s="2">
+      <c r="AN19" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>222</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -3746,16 +3742,16 @@
         <v>91</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -3805,7 +3801,7 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -3820,28 +3816,28 @@
         <v>102</v>
       </c>
       <c r="AK20" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN20" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>231</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -3860,13 +3856,13 @@
         <v>91</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3917,7 +3913,7 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -3932,7 +3928,7 @@
         <v>102</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>78</v>
@@ -3941,15 +3937,15 @@
         <v>78</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3972,16 +3968,16 @@
         <v>91</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4031,7 +4027,7 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4049,7 +4045,7 @@
         <v>78</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>78</v>
@@ -4060,10 +4056,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4086,13 +4082,13 @@
         <v>78</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4143,7 +4139,7 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4172,10 +4168,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4198,13 +4194,13 @@
         <v>78</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4255,28 +4251,28 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM24" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>78</v>
@@ -4284,14 +4280,14 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4310,16 +4306,16 @@
         <v>78</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="M25" t="s" s="2">
-        <v>256</v>
-      </c>
       <c r="N25" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4369,7 +4365,7 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -4381,7 +4377,7 @@
         <v>78</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>78</v>
@@ -4390,7 +4386,7 @@
         <v>78</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>78</v>
@@ -4398,14 +4394,14 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4424,19 +4420,19 @@
         <v>91</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="M26" t="s" s="2">
-        <v>261</v>
-      </c>
       <c r="N26" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="O26" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>78</v>
@@ -4485,7 +4481,7 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -4497,7 +4493,7 @@
         <v>78</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>78</v>
@@ -4514,10 +4510,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4543,10 +4539,10 @@
         <v>104</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4597,7 +4593,7 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -4606,7 +4602,7 @@
         <v>90</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>102</v>
@@ -4626,10 +4622,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4655,13 +4651,13 @@
         <v>104</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="N28" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4711,7 +4707,7 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -4720,7 +4716,7 @@
         <v>90</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>102</v>
@@ -4740,10 +4736,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4766,19 +4762,19 @@
         <v>91</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="N29" t="s" s="2">
+      <c r="O29" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>78</v>
@@ -4803,11 +4799,11 @@
         <v>78</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Y29" s="2"/>
       <c r="Z29" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>78</v>
@@ -4825,7 +4821,7 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -4834,7 +4830,7 @@
         <v>90</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>102</v>
@@ -4854,10 +4850,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4880,13 +4876,13 @@
         <v>91</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4937,7 +4933,7 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -4966,10 +4962,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4992,13 +4988,13 @@
         <v>78</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5049,28 +5045,28 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM31" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>78</v>
@@ -5078,14 +5074,14 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5104,16 +5100,16 @@
         <v>78</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="M32" t="s" s="2">
-        <v>256</v>
-      </c>
       <c r="N32" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5163,7 +5159,7 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5175,7 +5171,7 @@
         <v>78</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>78</v>
@@ -5184,7 +5180,7 @@
         <v>78</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>78</v>
@@ -5192,14 +5188,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5218,19 +5214,19 @@
         <v>91</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="M33" t="s" s="2">
-        <v>261</v>
-      </c>
       <c r="N33" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="O33" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>78</v>
@@ -5279,7 +5275,7 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5291,7 +5287,7 @@
         <v>78</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>78</v>
@@ -5308,10 +5304,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5334,13 +5330,13 @@
         <v>91</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5391,7 +5387,7 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>90</v>
@@ -5420,10 +5416,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5446,13 +5442,13 @@
         <v>78</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5503,7 +5499,7 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -5532,10 +5528,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5558,13 +5554,13 @@
         <v>78</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5615,7 +5611,7 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -5644,10 +5640,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5670,13 +5666,13 @@
         <v>91</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5727,7 +5723,7 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -5756,10 +5752,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5782,13 +5778,13 @@
         <v>78</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5839,28 +5835,28 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>78</v>
@@ -5868,14 +5864,14 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -5894,16 +5890,16 @@
         <v>78</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="M39" t="s" s="2">
-        <v>256</v>
-      </c>
       <c r="N39" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -5953,7 +5949,7 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -5965,7 +5961,7 @@
         <v>78</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>78</v>
@@ -5974,7 +5970,7 @@
         <v>78</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>78</v>
@@ -5982,14 +5978,14 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6008,19 +6004,19 @@
         <v>91</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="M40" t="s" s="2">
-        <v>261</v>
-      </c>
       <c r="N40" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="O40" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>78</v>
@@ -6069,7 +6065,7 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6081,7 +6077,7 @@
         <v>78</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>78</v>
@@ -6098,10 +6094,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6127,10 +6123,10 @@
         <v>110</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6157,14 +6153,14 @@
         <v>78</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Y41" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="Z41" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="Z41" t="s" s="2">
-        <v>303</v>
-      </c>
       <c r="AA41" t="s" s="2">
         <v>78</v>
       </c>
@@ -6181,7 +6177,7 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6210,10 +6206,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6236,13 +6232,13 @@
         <v>91</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6293,7 +6289,7 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -6322,10 +6318,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6348,13 +6344,13 @@
         <v>78</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6362,7 +6358,7 @@
         <v>78</v>
       </c>
       <c r="Q43" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="R43" t="s" s="2">
         <v>78</v>
@@ -6407,7 +6403,7 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -6436,10 +6432,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6462,13 +6458,13 @@
         <v>78</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6519,28 +6515,28 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM44" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>78</v>
@@ -6548,14 +6544,14 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -6574,16 +6570,16 @@
         <v>78</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="M45" t="s" s="2">
-        <v>256</v>
-      </c>
       <c r="N45" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6633,7 +6629,7 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -6645,7 +6641,7 @@
         <v>78</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>78</v>
@@ -6654,7 +6650,7 @@
         <v>78</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>78</v>
@@ -6662,14 +6658,14 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -6688,19 +6684,19 @@
         <v>91</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="M46" t="s" s="2">
-        <v>261</v>
-      </c>
       <c r="N46" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="O46" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>78</v>
@@ -6749,7 +6745,7 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -6761,7 +6757,7 @@
         <v>78</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>78</v>
@@ -6778,10 +6774,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6804,13 +6800,13 @@
         <v>78</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6837,14 +6833,14 @@
         <v>78</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Y47" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="Z47" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="Z47" t="s" s="2">
-        <v>319</v>
-      </c>
       <c r="AA47" t="s" s="2">
         <v>78</v>
       </c>
@@ -6861,7 +6857,7 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>90</v>
@@ -6890,10 +6886,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6916,13 +6912,13 @@
         <v>78</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6973,7 +6969,7 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>90</v>
@@ -7002,10 +6998,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7028,51 +7024,51 @@
         <v>91</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q49" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="R49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X49" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="R49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X49" t="s" s="2">
+      <c r="Y49" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="Y49" t="s" s="2">
+      <c r="Z49" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="Z49" t="s" s="2">
-        <v>331</v>
-      </c>
       <c r="AA49" t="s" s="2">
         <v>78</v>
       </c>
@@ -7089,7 +7085,7 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7118,10 +7114,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7144,16 +7140,16 @@
         <v>91</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7179,14 +7175,14 @@
         <v>78</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Y50" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="Z50" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="Z50" t="s" s="2">
-        <v>338</v>
-      </c>
       <c r="AA50" t="s" s="2">
         <v>78</v>
       </c>
@@ -7203,7 +7199,7 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -7232,10 +7228,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7258,16 +7254,16 @@
         <v>91</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7293,11 +7289,11 @@
         <v>78</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Y51" s="2"/>
       <c r="Z51" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>78</v>
@@ -7315,7 +7311,7 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -7344,10 +7340,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7370,16 +7366,16 @@
         <v>91</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7405,14 +7401,14 @@
         <v>78</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Y52" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="Z52" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="Z52" t="s" s="2">
-        <v>349</v>
-      </c>
       <c r="AA52" t="s" s="2">
         <v>78</v>
       </c>
@@ -7429,7 +7425,7 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -7458,10 +7454,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7484,16 +7480,16 @@
         <v>91</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7519,14 +7515,14 @@
         <v>78</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="Y53" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="Z53" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="Z53" t="s" s="2">
-        <v>355</v>
-      </c>
       <c r="AA53" t="s" s="2">
         <v>78</v>
       </c>
@@ -7543,7 +7539,7 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -7572,10 +7568,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7598,16 +7594,16 @@
         <v>91</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -7657,7 +7653,7 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -7686,10 +7682,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7712,13 +7708,13 @@
         <v>91</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7726,7 +7722,7 @@
         <v>78</v>
       </c>
       <c r="Q55" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="R55" t="s" s="2">
         <v>78</v>
@@ -7771,7 +7767,7 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -7792,7 +7788,7 @@
         <v>78</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>78</v>
@@ -7800,10 +7796,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7826,13 +7822,13 @@
         <v>78</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -7883,28 +7879,28 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM56" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>78</v>
@@ -7912,14 +7908,14 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -7938,16 +7934,16 @@
         <v>78</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="M57" t="s" s="2">
-        <v>256</v>
-      </c>
       <c r="N57" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -7997,7 +7993,7 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
@@ -8009,7 +8005,7 @@
         <v>78</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>78</v>
@@ -8018,7 +8014,7 @@
         <v>78</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>78</v>
@@ -8026,14 +8022,14 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -8052,19 +8048,19 @@
         <v>91</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="M58" t="s" s="2">
-        <v>261</v>
-      </c>
       <c r="N58" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="O58" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>78</v>
@@ -8113,7 +8109,7 @@
         <v>78</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
@@ -8125,7 +8121,7 @@
         <v>78</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>78</v>
@@ -8142,10 +8138,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8171,10 +8167,10 @@
         <v>110</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8201,14 +8197,14 @@
         <v>78</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Y59" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="Z59" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="Z59" t="s" s="2">
-        <v>371</v>
-      </c>
       <c r="AA59" t="s" s="2">
         <v>78</v>
       </c>
@@ -8225,7 +8221,7 @@
         <v>78</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>90</v>
@@ -8254,10 +8250,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8280,13 +8276,13 @@
         <v>91</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8337,7 +8333,7 @@
         <v>78</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>90</v>
@@ -8366,10 +8362,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8395,10 +8391,10 @@
         <v>81</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8449,7 +8445,7 @@
         <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
